--- a/biology/Botanique/Lepilaena/Lepilaena.xlsx
+++ b/biology/Botanique/Lepilaena/Lepilaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lepilaena est un genre de plantes monocotylédones, à rhizome sympodial rampant[2], de la famille des Zannichelliaceae.
-Il comprend six espèces endémiques[3],[4] des eaux continentales ou côtières, douces, saumâtres ou salines, des zones tempérées d'Australie, de Tasmanie et de Nouvelle-Zélande [5],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lepilaena est un genre de plantes monocotylédones, à rhizome sympodial rampant, de la famille des Zannichelliaceae.
+Il comprend six espèces endémiques, des eaux continentales ou côtières, douces, saumâtres ou salines, des zones tempérées d'Australie, de Tasmanie et de Nouvelle-Zélande ,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique Lepilaena vient de Lepis (écaille) et laena (cape, manteau) et découle de leur appellation vernaculaire anglaise « water-mats » (tapis aquatiques) , par exemple, le nom vernaculaire de L. australis est « Austral water-mat » (tapis aquatique austral), celui de L. marina est « Sea water-mat » (tapis marin).
 </t>
@@ -543,9 +557,11 @@
           <t>Un genre encore à l'étude</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur la base d'études moléculaires et morphologiques, ce genre peu étudié s'est révélé avoir une étroite affinité avec Zannichellia, autre genre de plantes aquatiques[5]. En conséquence il a été suggéré de transférer toutes les espèces de Lepilaena sous le genre afro-eurasien Althenia[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur la base d'études moléculaires et morphologiques, ce genre peu étudié s'est révélé avoir une étroite affinité avec Zannichellia, autre genre de plantes aquatiques. En conséquence il a été suggéré de transférer toutes les espèces de Lepilaena sous le genre afro-eurasien Althenia.
 </t>
         </is>
       </c>
@@ -574,21 +590,23 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sont actuellement acceptées dans ce genre :
-Selon Catalogue of Life                                   (17 juillet 2010)[7] et AlgaeBase                                           (17 juillet 2010)[8] :
+Selon Catalogue of Life                                   (17 juillet 2010) et AlgaeBase                                           (17 juillet 2010) :
 Lepilaena cylindrocarpa (Koernicke) Bentham
 Lepilaena marina E.L.Robertson
 Lepilaena preissii : (Lehmann) F.Mueller
-Selon IPNI                (7 mars 2010)[9] :
+Selon IPNI                (7 mars 2010) :
 Lepilaena australis Harv., 1855 : espèce type
 Lepilaena bilocularis Kirk, 1896
 Lepilaena cylindrocarpa Benth., 1878
 Lepilaena marina E.L.Robertson, 1984
 Lepilaena patentifolia E.L.Robertson, 1986
 Lepilaena preissii (Lehmann) F.Mueller, 1874
-Selon World Checklist of Selected Plant Families (WCSP)  (17 juil. 2010)[10] :
+Selon World Checklist of Selected Plant Families (WCSP)  (17 juil. 2010) :
 Lepilaena australis J.Drumm. ex Harv. (1855)
 Lepilaena bilocularis Kirk (1895 publ. 1896)
 Lepilaena cylindrocarpa (Körn. ex Müll.Stuttg.) Benth. (1878)
@@ -622,7 +640,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lepilaena australis
 Althenia cylindrocarpa (Koernicke) Ascherson
@@ -657,9 +677,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces plantes sont endémiques des eaux continentales ou côtières, douces, saumâtres ou salines, des zones tempérées d'Australie, de Tasmanie et de Nouvelle-Zélande[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces plantes sont endémiques des eaux continentales ou côtières, douces, saumâtres ou salines, des zones tempérées d'Australie, de Tasmanie et de Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -688,10 +710,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux espèces, Lepilaena cylindrocarpa et Lepilaena marina, sont remarquables du fait de leur présence en environnement marin, dans les estuaires et les estrans [5].
-Lepilaena cylindrocarpa vit également dans les eaux saumâtres d'Australie continentale[12].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux espèces, Lepilaena cylindrocarpa et Lepilaena marina, sont remarquables du fait de leur présence en environnement marin, dans les estuaires et les estrans .
+Lepilaena cylindrocarpa vit également dans les eaux saumâtres d'Australie continentale.
 Les autres espèces peuvent vivre dans des eaux côtières ou continentales, stagnantes ou modérément vives, en eau douce ou saumâtre.
 </t>
         </is>
